--- a/LOGS/0228f4df-0447-454a-8a5e-f1c7cffc11a5/main_page_service_output/notes_transformed_standard_cropped_df.xlsx
+++ b/LOGS/0228f4df-0447-454a-8a5e-f1c7cffc11a5/main_page_service_output/notes_transformed_standard_cropped_df.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="110">
   <si>
     <t>rows</t>
   </si>
@@ -47,6 +47,24 @@
     <t>value</t>
   </si>
   <si>
+    <t xml:space="preserve"> Cash at banks</t>
+  </si>
+  <si>
+    <t>Current Trade receivables</t>
+  </si>
+  <si>
+    <t>Current Trade receivables related entity (Note 20)</t>
+  </si>
+  <si>
+    <t>Current Other receivables and prepayments</t>
+  </si>
+  <si>
+    <t>Current Loan to Boyne Smelters Limited (Note 20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current </t>
+  </si>
+  <si>
     <t>Stock on hand (Lines 1 and 2) Alumina</t>
   </si>
   <si>
@@ -185,6 +203,15 @@
     <t xml:space="preserve"> Deferred expenditure - production costs</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Credit allowance account Boyne Smelters Limited</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Provision for rehabilitation, restoration and closure obligation</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Unwinding of the discount and changes in discount rate</t>
   </si>
   <si>
@@ -215,15 +242,6 @@
     <t xml:space="preserve"> Other</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
     <t>Current income tax: Current income tax expense</t>
   </si>
   <si>
@@ -263,16 +281,10 @@
     <t>Financial Position as follow: Deferred tax liabilities, net</t>
   </si>
   <si>
-    <t>Consolidated Statement of Financial Position 2021</t>
-  </si>
-  <si>
-    <t>Consolidated Statement of Financial Position 2020</t>
-  </si>
-  <si>
-    <t>Consolidated Statement of Profit or Loss and Other Comprehensive Income 2021</t>
-  </si>
-  <si>
-    <t>Consolidated Statement of Profit or Loss and Other Comprehensive Income 2020</t>
+    <t>Consolidated Statement of Financial Position</t>
+  </si>
+  <si>
+    <t>Consolidated Statement of Profit or Loss and Other Comprehensive Income</t>
   </si>
   <si>
     <t xml:space="preserve"> As of 1 January    </t>
@@ -312,6 +324,30 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Type of goods Sale of aluminium ingots</t>
+  </si>
+  <si>
+    <t>Type of goods Supply of power</t>
+  </si>
+  <si>
+    <t>Type of goods Total revenue from contracts with customers</t>
+  </si>
+  <si>
+    <t>Type of goods Japan</t>
+  </si>
+  <si>
+    <t>Type of goods Australia</t>
+  </si>
+  <si>
+    <t>Type of goods Total from contracts with customers</t>
+  </si>
+  <si>
+    <t>Timing of revenue recognition Goods transferred at a point in time</t>
+  </si>
+  <si>
+    <t>Timing of revenue recognition Total revenue from contracts with</t>
   </si>
   <si>
     <t xml:space="preserve"> Interest income</t>
@@ -684,36 +720,169 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>2021</v>
+      </c>
+      <c r="D2">
+        <v>39750963</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>2020</v>
+      </c>
+      <c r="D3">
+        <v>33141783</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2">
+        <v>2021</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3">
+        <v>2021</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4">
+        <v>2020</v>
+      </c>
+      <c r="D4">
+        <v>611507</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5">
+        <v>2020</v>
+      </c>
+      <c r="D5">
+        <v>20511</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2">
+        <v>2021</v>
+      </c>
+      <c r="D2">
+        <v>29357639</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3">
+        <v>2020</v>
+      </c>
+      <c r="D3">
+        <v>27490442</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -742,10 +911,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C2">
         <v>2021</v>
@@ -756,10 +925,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C3">
         <v>2021</v>
@@ -770,10 +939,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C4">
         <v>2021</v>
@@ -784,10 +953,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C5">
         <v>2021</v>
@@ -798,10 +967,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C6">
         <v>2021</v>
@@ -839,10 +1008,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" t="s">
-        <v>61</v>
+        <v>64</v>
+      </c>
+      <c r="C2">
+        <v>2021</v>
       </c>
       <c r="D2">
         <v>4195989</v>
@@ -850,10 +1019,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" t="s">
-        <v>61</v>
+        <v>65</v>
+      </c>
+      <c r="C3">
+        <v>2021</v>
       </c>
       <c r="D3">
         <v>1258797</v>
@@ -861,10 +1030,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" t="s">
-        <v>61</v>
+        <v>66</v>
+      </c>
+      <c r="C4">
+        <v>2021</v>
       </c>
       <c r="D4">
         <v>130765</v>
@@ -872,10 +1041,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" t="s">
-        <v>61</v>
+        <v>67</v>
+      </c>
+      <c r="C5">
+        <v>2021</v>
       </c>
       <c r="D5">
         <v>-68451</v>
@@ -883,10 +1052,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" t="s">
-        <v>61</v>
+        <v>68</v>
+      </c>
+      <c r="C6">
+        <v>2021</v>
       </c>
       <c r="D6">
         <v>1142</v>
@@ -894,10 +1063,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" t="s">
-        <v>61</v>
+        <v>56</v>
+      </c>
+      <c r="C7">
+        <v>2021</v>
       </c>
       <c r="D7">
         <v>1322253</v>
@@ -905,10 +1074,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="C8">
+        <v>2020</v>
       </c>
       <c r="D8">
         <v>-7513492</v>
@@ -916,10 +1085,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" t="s">
-        <v>62</v>
+        <v>65</v>
+      </c>
+      <c r="C9">
+        <v>2020</v>
       </c>
       <c r="D9">
         <v>-2254048</v>
@@ -927,10 +1096,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" t="s">
-        <v>62</v>
+        <v>66</v>
+      </c>
+      <c r="C10">
+        <v>2020</v>
       </c>
       <c r="D10">
         <v>51938</v>
@@ -938,10 +1107,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" t="s">
-        <v>62</v>
+        <v>67</v>
+      </c>
+      <c r="C11">
+        <v>2020</v>
       </c>
       <c r="D11">
         <v>132263</v>
@@ -949,10 +1118,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" t="s">
-        <v>62</v>
+        <v>68</v>
+      </c>
+      <c r="C12">
+        <v>2020</v>
       </c>
       <c r="D12">
         <v>164460</v>
@@ -960,10 +1129,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" t="s">
-        <v>62</v>
+        <v>56</v>
+      </c>
+      <c r="C13">
+        <v>2020</v>
       </c>
       <c r="D13">
         <v>-1905387</v>
@@ -998,10 +1167,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" t="s">
-        <v>61</v>
+        <v>69</v>
+      </c>
+      <c r="C2">
+        <v>2021</v>
       </c>
       <c r="D2">
         <v>92191</v>
@@ -1009,10 +1178,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" t="s">
-        <v>61</v>
+        <v>70</v>
+      </c>
+      <c r="C3">
+        <v>2021</v>
       </c>
       <c r="D3">
         <v>-68451</v>
@@ -1020,10 +1189,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" t="s">
-        <v>61</v>
+        <v>71</v>
+      </c>
+      <c r="C4">
+        <v>2021</v>
       </c>
       <c r="D4">
         <v>1298513</v>
@@ -1031,10 +1200,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" t="s">
-        <v>61</v>
+        <v>72</v>
+      </c>
+      <c r="C5">
+        <v>2021</v>
       </c>
       <c r="D5">
         <v>1322253</v>
@@ -1042,10 +1211,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" t="s">
-        <v>62</v>
+        <v>69</v>
+      </c>
+      <c r="C6">
+        <v>2020</v>
       </c>
       <c r="D6">
         <v>1215248</v>
@@ -1053,10 +1222,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" t="s">
-        <v>62</v>
+        <v>70</v>
+      </c>
+      <c r="C7">
+        <v>2020</v>
       </c>
       <c r="D7">
         <v>132263</v>
@@ -1064,10 +1233,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" t="s">
-        <v>62</v>
+        <v>71</v>
+      </c>
+      <c r="C8">
+        <v>2020</v>
       </c>
       <c r="D8">
         <v>-3252898</v>
@@ -1075,10 +1244,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" t="s">
-        <v>62</v>
+        <v>72</v>
+      </c>
+      <c r="C9">
+        <v>2020</v>
       </c>
       <c r="D9">
         <v>-1905387</v>
@@ -1113,10 +1282,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>82</v>
+      </c>
+      <c r="C2">
+        <v>2021</v>
       </c>
       <c r="D2">
         <v>-15055549</v>
@@ -1124,10 +1296,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>82</v>
+      </c>
+      <c r="C3">
+        <v>2021</v>
       </c>
       <c r="D3">
         <v>8766315</v>
@@ -1135,10 +1310,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>82</v>
+      </c>
+      <c r="C4">
+        <v>2021</v>
       </c>
       <c r="D4">
         <v>-19644083</v>
@@ -1146,10 +1324,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>82</v>
+      </c>
+      <c r="C5">
+        <v>2021</v>
       </c>
       <c r="D5">
         <v>2157101</v>
@@ -1157,10 +1338,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>82</v>
+      </c>
+      <c r="C6">
+        <v>2021</v>
       </c>
       <c r="D6">
         <v>-3080454</v>
@@ -1168,10 +1352,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>82</v>
+      </c>
+      <c r="C7">
+        <v>2021</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1179,10 +1366,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>82</v>
+      </c>
+      <c r="C8">
+        <v>2021</v>
       </c>
       <c r="D8">
         <v>-26856670</v>
@@ -1190,10 +1380,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>82</v>
+      </c>
+      <c r="C9">
+        <v>2021</v>
       </c>
       <c r="D9">
         <v>-26856670</v>
@@ -1201,10 +1394,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>82</v>
+      </c>
+      <c r="C10">
+        <v>2021</v>
       </c>
       <c r="D10">
         <v>-26856670</v>
@@ -1212,10 +1408,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>82</v>
+      </c>
+      <c r="C11">
+        <v>2020</v>
       </c>
       <c r="D11">
         <v>-13623286</v>
@@ -1223,10 +1422,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>82</v>
+      </c>
+      <c r="C12">
+        <v>2020</v>
       </c>
       <c r="D12">
         <v>8291977</v>
@@ -1234,10 +1436,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>82</v>
+      </c>
+      <c r="C13">
+        <v>2020</v>
       </c>
       <c r="D13">
         <v>59317</v>
@@ -1245,10 +1450,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>82</v>
+      </c>
+      <c r="C14">
+        <v>2020</v>
       </c>
       <c r="D14">
         <v>1479182</v>
@@ -1256,10 +1464,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>82</v>
+      </c>
+      <c r="C15">
+        <v>2020</v>
       </c>
       <c r="D15">
         <v>-2739866</v>
@@ -1267,10 +1478,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>82</v>
+      </c>
+      <c r="C16">
+        <v>2020</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1278,10 +1492,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>82</v>
+      </c>
+      <c r="C17">
+        <v>2020</v>
       </c>
       <c r="D17">
         <v>-6532676</v>
@@ -1289,10 +1506,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>82</v>
+      </c>
+      <c r="C18">
+        <v>2020</v>
       </c>
       <c r="D18">
         <v>-6532676</v>
@@ -1300,10 +1520,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>82</v>
+      </c>
+      <c r="C19">
+        <v>2020</v>
       </c>
       <c r="D19">
         <v>-6532676</v>
@@ -1311,10 +1534,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>83</v>
+      </c>
+      <c r="C20">
+        <v>2021</v>
       </c>
       <c r="D20">
         <v>1432263</v>
@@ -1322,10 +1548,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>83</v>
+      </c>
+      <c r="C21">
+        <v>2021</v>
       </c>
       <c r="D21">
         <v>-474338</v>
@@ -1333,10 +1562,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>83</v>
+      </c>
+      <c r="C22">
+        <v>2021</v>
       </c>
       <c r="D22">
         <v>19703400</v>
@@ -1344,10 +1576,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>83</v>
+      </c>
+      <c r="C23">
+        <v>2021</v>
       </c>
       <c r="D23">
         <v>-677919</v>
@@ -1355,10 +1590,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>83</v>
+      </c>
+      <c r="C24">
+        <v>2021</v>
       </c>
       <c r="D24">
         <v>340588</v>
@@ -1366,10 +1604,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>83</v>
+      </c>
+      <c r="C25">
+        <v>2021</v>
       </c>
       <c r="D25">
         <v>20323994</v>
@@ -1377,10 +1618,13 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B26" t="s">
-        <v>78</v>
+        <v>83</v>
+      </c>
+      <c r="C26">
+        <v>2021</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1388,10 +1632,13 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>83</v>
+      </c>
+      <c r="C27">
+        <v>2021</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1399,10 +1646,13 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>83</v>
+      </c>
+      <c r="C28">
+        <v>2021</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1410,10 +1660,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B29" t="s">
-        <v>79</v>
+        <v>83</v>
+      </c>
+      <c r="C29">
+        <v>2020</v>
       </c>
       <c r="D29">
         <v>-559573</v>
@@ -1421,10 +1674,13 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
+        <v>83</v>
+      </c>
+      <c r="C30">
+        <v>2020</v>
       </c>
       <c r="D30">
         <v>-3131260</v>
@@ -1432,10 +1688,13 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B31" t="s">
-        <v>79</v>
+        <v>83</v>
+      </c>
+      <c r="C31">
+        <v>2020</v>
       </c>
       <c r="D31">
         <v>-3159861</v>
@@ -1443,10 +1702,13 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B32" t="s">
-        <v>79</v>
+        <v>83</v>
+      </c>
+      <c r="C32">
+        <v>2020</v>
       </c>
       <c r="D32">
         <v>-1551455</v>
@@ -1454,10 +1716,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B33" t="s">
-        <v>79</v>
+        <v>83</v>
+      </c>
+      <c r="C33">
+        <v>2020</v>
       </c>
       <c r="D33">
         <v>437935</v>
@@ -1465,10 +1730,13 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B34" t="s">
-        <v>79</v>
+        <v>83</v>
+      </c>
+      <c r="C34">
+        <v>2020</v>
       </c>
       <c r="D34">
         <v>-7964214</v>
@@ -1476,10 +1744,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B35" t="s">
-        <v>79</v>
+        <v>83</v>
+      </c>
+      <c r="C35">
+        <v>2020</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1487,10 +1758,13 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B36" t="s">
-        <v>79</v>
+        <v>83</v>
+      </c>
+      <c r="C36">
+        <v>2020</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1498,10 +1772,13 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B37" t="s">
-        <v>79</v>
+        <v>83</v>
+      </c>
+      <c r="C37">
+        <v>2020</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1536,10 +1813,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>2021</v>
@@ -1550,10 +1827,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>2021</v>
@@ -1564,10 +1841,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <v>2021</v>
@@ -1578,10 +1855,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>2021</v>
@@ -1592,10 +1869,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>2020</v>
@@ -1606,10 +1883,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>2020</v>
@@ -1620,10 +1897,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C8">
         <v>2020</v>
@@ -1634,10 +1911,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C9">
         <v>2020</v>
@@ -1675,10 +1952,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C2">
         <v>2020</v>
@@ -1689,10 +1966,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C3">
         <v>2021</v>
@@ -1703,10 +1980,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C4">
         <v>2021</v>
@@ -1717,10 +1994,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C5">
         <v>2021</v>
@@ -1731,10 +2008,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C6">
         <v>2020</v>
@@ -1745,10 +2022,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C7">
         <v>2021</v>
@@ -1759,10 +2036,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C8">
         <v>2021</v>
@@ -1773,10 +2050,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C9">
         <v>2021</v>
@@ -1787,10 +2064,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B10" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C10">
         <v>2021</v>
@@ -1801,10 +2078,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C11">
         <v>2020</v>
@@ -1815,10 +2092,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C12">
         <v>2021</v>
@@ -1829,10 +2106,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C13">
         <v>2021</v>
@@ -1843,10 +2120,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C14">
         <v>2021</v>
@@ -1857,10 +2134,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B15" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C15">
         <v>2020</v>
@@ -1871,10 +2148,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B16" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C16">
         <v>2021</v>
@@ -1885,10 +2162,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B17" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C17">
         <v>2021</v>
@@ -1899,10 +2176,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C18">
         <v>2021</v>
@@ -1913,10 +2190,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B19" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C19">
         <v>2021</v>
@@ -1927,10 +2204,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B20" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C20">
         <v>2020</v>
@@ -1941,10 +2218,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B21" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C21">
         <v>2021</v>
@@ -1955,10 +2232,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B22" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C22">
         <v>2021</v>
@@ -1969,10 +2246,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B23" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C23">
         <v>2021</v>
@@ -1983,10 +2260,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B24" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C24">
         <v>2020</v>
@@ -1997,10 +2274,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B25" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C25">
         <v>2021</v>
@@ -2011,10 +2288,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B26" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C26">
         <v>2021</v>
@@ -2025,10 +2302,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C27">
         <v>2021</v>
@@ -2039,10 +2316,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B28" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C28">
         <v>2021</v>
@@ -2053,10 +2330,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B29" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C29">
         <v>2020</v>
@@ -2067,10 +2344,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B30" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C30">
         <v>2021</v>
@@ -2081,10 +2358,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B31" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C31">
         <v>2021</v>
@@ -2095,10 +2372,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B32" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C32">
         <v>2021</v>
@@ -2109,10 +2386,10 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B33" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C33">
         <v>2020</v>
@@ -2123,10 +2400,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B34" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C34">
         <v>2021</v>
@@ -2137,10 +2414,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B35" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C35">
         <v>2021</v>
@@ -2151,10 +2428,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B36" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C36">
         <v>2021</v>
@@ -2165,10 +2442,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B37" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C37">
         <v>2021</v>
@@ -2196,24 +2473,340 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2">
+        <v>2021</v>
+      </c>
+      <c r="D2">
+        <v>135629542</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3">
+        <v>2021</v>
+      </c>
+      <c r="D3">
+        <v>25136861</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4">
+        <v>2021</v>
+      </c>
+      <c r="D4">
+        <v>160766403</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>2021</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6">
+        <v>2021</v>
+      </c>
+      <c r="D6">
+        <v>25136861</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7">
+        <v>2021</v>
+      </c>
+      <c r="D7">
+        <v>160766403</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8">
+        <v>2021</v>
+      </c>
+      <c r="D8">
+        <v>160766403</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9">
+        <v>2021</v>
+      </c>
+      <c r="D9">
+        <v>160766403</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10">
+        <v>2020</v>
+      </c>
+      <c r="D10">
+        <v>122789076</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11">
+        <v>2020</v>
+      </c>
+      <c r="D11">
+        <v>21666331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12">
+        <v>2020</v>
+      </c>
+      <c r="D12">
+        <v>144455407</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13">
+        <v>2020</v>
+      </c>
+      <c r="D13">
+        <v>122789076</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14">
+        <v>2020</v>
+      </c>
+      <c r="D14">
+        <v>21666331</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15">
+        <v>2020</v>
+      </c>
+      <c r="D15">
+        <v>144455407</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16">
+        <v>2020</v>
+      </c>
+      <c r="D16">
+        <v>144455407</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17">
+        <v>2020</v>
+      </c>
+      <c r="D17">
+        <v>144455407</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>2021</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>2021</v>
+      </c>
+      <c r="D3">
+        <v>2332066</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>2021</v>
+      </c>
+      <c r="D4">
+        <v>4784487</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>2021</v>
+      </c>
+      <c r="D5">
+        <v>2115641</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>2021</v>
+      </c>
+      <c r="D6">
+        <v>9232194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>2020</v>
+      </c>
+      <c r="D7">
+        <v>1960802</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>2020</v>
+      </c>
+      <c r="D8">
+        <v>11216249</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>2020</v>
+      </c>
+      <c r="D9">
+        <v>2646519</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>2020</v>
+      </c>
+      <c r="D10">
+        <v>2346743</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>2020</v>
+      </c>
+      <c r="D11">
+        <v>18170313</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2242,10 +2835,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" t="s">
-        <v>61</v>
+        <v>105</v>
+      </c>
+      <c r="C2">
+        <v>2021</v>
       </c>
       <c r="D2">
         <v>236082</v>
@@ -2253,10 +2846,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3" t="s">
-        <v>61</v>
+        <v>106</v>
+      </c>
+      <c r="C3">
+        <v>2021</v>
       </c>
       <c r="D3">
         <v>236082</v>
@@ -2264,10 +2857,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B4" t="s">
-        <v>61</v>
+        <v>107</v>
+      </c>
+      <c r="C4">
+        <v>2021</v>
       </c>
       <c r="D4">
         <v>2559370</v>
@@ -2275,10 +2868,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" t="s">
-        <v>61</v>
+        <v>108</v>
+      </c>
+      <c r="C5">
+        <v>2021</v>
       </c>
       <c r="D5">
         <v>2559370</v>
@@ -2286,10 +2879,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B6" t="s">
-        <v>61</v>
+        <v>109</v>
+      </c>
+      <c r="C6">
+        <v>2021</v>
       </c>
       <c r="D6">
         <v>-2323288</v>
@@ -2297,10 +2890,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B7" t="s">
-        <v>62</v>
+        <v>105</v>
+      </c>
+      <c r="C7">
+        <v>2020</v>
       </c>
       <c r="D7">
         <v>425632</v>
@@ -2308,10 +2901,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B8" t="s">
-        <v>62</v>
+        <v>106</v>
+      </c>
+      <c r="C8">
+        <v>2020</v>
       </c>
       <c r="D8">
         <v>425632</v>
@@ -2319,10 +2912,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" t="s">
-        <v>62</v>
+        <v>107</v>
+      </c>
+      <c r="C9">
+        <v>2020</v>
       </c>
       <c r="D9">
         <v>2111740</v>
@@ -2330,10 +2923,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>96</v>
-      </c>
-      <c r="B10" t="s">
-        <v>62</v>
+        <v>108</v>
+      </c>
+      <c r="C10">
+        <v>2020</v>
       </c>
       <c r="D10">
         <v>2111740</v>
@@ -2341,10 +2934,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B11" t="s">
-        <v>62</v>
+        <v>109</v>
+      </c>
+      <c r="C11">
+        <v>2020</v>
       </c>
       <c r="D11">
         <v>-1686108</v>
@@ -2379,10 +2972,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>2021</v>
@@ -2393,10 +2986,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>2021</v>
@@ -2407,10 +3000,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <v>2021</v>
@@ -2421,10 +3014,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>2021</v>
@@ -2435,10 +3028,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>2021</v>
@@ -2449,10 +3042,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>2021</v>
@@ -2463,10 +3056,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C8">
         <v>2021</v>
@@ -2477,10 +3070,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C9">
         <v>2021</v>
@@ -2491,10 +3084,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>2021</v>
@@ -2505,10 +3098,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C11">
         <v>2021</v>
@@ -2519,10 +3112,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C12">
         <v>2020</v>
@@ -2533,10 +3126,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C13">
         <v>2020</v>
@@ -2547,10 +3140,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C14">
         <v>2020</v>
@@ -2561,10 +3154,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C15">
         <v>2020</v>
@@ -2575,10 +3168,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C16">
         <v>2020</v>
@@ -2589,10 +3182,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C17">
         <v>2020</v>
@@ -2603,10 +3196,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C18">
         <v>2020</v>
@@ -2617,10 +3210,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C19">
         <v>2020</v>
@@ -2631,10 +3224,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C20">
         <v>2020</v>
@@ -2645,10 +3238,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C21">
         <v>2020</v>
@@ -2698,10 +3291,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C2">
         <v>2021</v>
@@ -2712,10 +3305,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C3">
         <v>2021</v>
@@ -2726,10 +3319,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C4">
         <v>2021</v>
@@ -2740,10 +3333,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C5">
         <v>2021</v>
@@ -2754,10 +3347,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C6">
         <v>2021</v>
@@ -2768,10 +3361,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C7">
         <v>2021</v>
@@ -2782,10 +3375,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C8">
         <v>2021</v>
@@ -2796,10 +3389,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C9">
         <v>2021</v>
@@ -2810,10 +3403,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C10">
         <v>2021</v>
@@ -2824,10 +3417,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C11">
         <v>2021</v>
@@ -2838,10 +3431,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C12">
         <v>2020</v>
@@ -2852,10 +3445,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C13">
         <v>2021</v>
@@ -2866,10 +3459,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C14">
         <v>2021</v>
@@ -2880,10 +3473,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C15">
         <v>2021</v>
@@ -2894,10 +3487,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C16">
         <v>2021</v>
@@ -2908,10 +3501,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C17">
         <v>2021</v>
@@ -2922,10 +3515,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C18">
         <v>2021</v>
@@ -2936,10 +3529,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C19">
         <v>2021</v>
@@ -2950,10 +3543,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C20">
         <v>2021</v>
@@ -2964,10 +3557,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C21">
         <v>2021</v>
@@ -2978,10 +3571,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C22">
         <v>2021</v>
@@ -2992,10 +3585,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C23">
         <v>2020</v>
@@ -3006,10 +3599,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C24">
         <v>2021</v>
@@ -3020,10 +3613,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C25">
         <v>2021</v>
@@ -3034,10 +3627,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C26">
         <v>2021</v>
@@ -3048,10 +3641,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C27">
         <v>2021</v>
@@ -3062,10 +3655,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C28">
         <v>2021</v>
@@ -3076,10 +3669,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C29">
         <v>2021</v>
@@ -3090,10 +3683,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C30">
         <v>2021</v>
@@ -3104,10 +3697,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C31">
         <v>2021</v>
@@ -3118,10 +3711,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C32">
         <v>2021</v>
@@ -3132,10 +3725,10 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C33">
         <v>2021</v>
@@ -3146,10 +3739,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C34">
         <v>2020</v>
@@ -3160,10 +3753,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B35" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C35">
         <v>2021</v>
@@ -3174,10 +3767,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B36" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C36">
         <v>2021</v>
@@ -3188,10 +3781,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B37" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C37">
         <v>2021</v>
@@ -3202,10 +3795,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B38" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C38">
         <v>2021</v>
@@ -3216,10 +3809,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B39" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C39">
         <v>2021</v>
@@ -3230,10 +3823,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B40" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C40">
         <v>2021</v>
@@ -3244,10 +3837,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B41" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C41">
         <v>2021</v>
@@ -3258,10 +3851,10 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B42" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C42">
         <v>2021</v>
@@ -3272,10 +3865,10 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B43" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C43">
         <v>2021</v>
@@ -3286,10 +3879,10 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B44" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C44">
         <v>2021</v>
@@ -3300,10 +3893,10 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B45" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C45">
         <v>2020</v>
@@ -3314,10 +3907,10 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B46" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>2021</v>
@@ -3328,10 +3921,10 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B47" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>2021</v>
@@ -3342,10 +3935,10 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B48" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>2021</v>
@@ -3356,10 +3949,10 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B49" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>2021</v>
@@ -3370,10 +3963,10 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B50" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>2021</v>
@@ -3384,10 +3977,10 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B51" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>2021</v>
@@ -3398,10 +3991,10 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B52" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>2021</v>
@@ -3412,10 +4005,10 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B53" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>2021</v>
@@ -3426,10 +4019,10 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B54" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>2021</v>
@@ -3440,10 +4033,10 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B55" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C55">
         <v>2021</v>
@@ -3454,10 +4047,10 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B56" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C56">
         <v>2020</v>
@@ -3468,10 +4061,10 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B57" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C57">
         <v>2021</v>
@@ -3482,10 +4075,10 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B58" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C58">
         <v>2021</v>
@@ -3496,10 +4089,10 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B59" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C59">
         <v>2021</v>
@@ -3510,10 +4103,10 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B60" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C60">
         <v>2021</v>
@@ -3524,10 +4117,10 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B61" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C61">
         <v>2021</v>
@@ -3538,10 +4131,10 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B62" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C62">
         <v>2021</v>
@@ -3552,10 +4145,10 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B63" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C63">
         <v>2021</v>
@@ -3566,10 +4159,10 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B64" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C64">
         <v>2021</v>
@@ -3580,10 +4173,10 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B65" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C65">
         <v>2021</v>
@@ -3594,10 +4187,10 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B66" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C66">
         <v>2021</v>
@@ -3608,10 +4201,10 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B67" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C67">
         <v>2020</v>
@@ -3649,10 +4242,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C2">
         <v>2021</v>
@@ -3663,10 +4256,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C3">
         <v>2021</v>
@@ -3677,10 +4270,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C4">
         <v>2021</v>
@@ -3691,10 +4284,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C5">
         <v>2021</v>
@@ -3705,10 +4298,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C6">
         <v>2021</v>
@@ -3719,10 +4312,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C7">
         <v>2021</v>
@@ -3733,10 +4326,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C8">
         <v>2021</v>
@@ -3747,10 +4340,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C9">
         <v>2021</v>
@@ -3761,10 +4354,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C10">
         <v>2020</v>
@@ -3775,10 +4368,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C11">
         <v>2021</v>
@@ -3789,10 +4382,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C12">
         <v>2021</v>
@@ -3803,10 +4396,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C13">
         <v>2021</v>
@@ -3817,10 +4410,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C14">
         <v>2021</v>
@@ -3831,10 +4424,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C15">
         <v>2021</v>
@@ -3845,10 +4438,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C16">
         <v>2021</v>
@@ -3859,10 +4452,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C17">
         <v>2021</v>
@@ -3873,10 +4466,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C18">
         <v>2021</v>
@@ -3887,10 +4480,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C19">
         <v>2020</v>
@@ -3901,10 +4494,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C20">
         <v>2021</v>
@@ -3915,10 +4508,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C21">
         <v>2021</v>
@@ -3929,10 +4522,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C22">
         <v>2021</v>
@@ -3943,10 +4536,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C23">
         <v>2021</v>
@@ -3957,10 +4550,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C24">
         <v>2021</v>
@@ -3971,10 +4564,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C25">
         <v>2021</v>
@@ -3985,10 +4578,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C26">
         <v>2021</v>
@@ -3999,10 +4592,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C27">
         <v>2021</v>
@@ -4013,10 +4606,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C28">
         <v>2020</v>
@@ -4054,10 +4647,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>2021</v>
@@ -4068,10 +4661,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>2021</v>
@@ -4082,10 +4675,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <v>2021</v>
@@ -4096,10 +4689,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>2021</v>
@@ -4110,10 +4703,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>2021</v>
@@ -4124,10 +4717,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>2021</v>
@@ -4138,10 +4731,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C8">
         <v>2021</v>
@@ -4152,10 +4745,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C9">
         <v>2021</v>
@@ -4166,10 +4759,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>2020</v>
@@ -4180,10 +4773,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C11">
         <v>2020</v>
@@ -4194,10 +4787,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C12">
         <v>2020</v>
@@ -4208,10 +4801,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C13">
         <v>2020</v>
@@ -4222,10 +4815,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C14">
         <v>2020</v>
@@ -4236,10 +4829,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C15">
         <v>2020</v>
@@ -4250,10 +4843,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C16">
         <v>2020</v>
@@ -4264,10 +4857,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C17">
         <v>2020</v>
@@ -4305,10 +4898,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>2021</v>
@@ -4319,10 +4912,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>2020</v>
@@ -4338,12 +4931,115 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2">
+        <v>2021</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3">
+        <v>2021</v>
+      </c>
+      <c r="D3">
+        <v>41042476</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4">
+        <v>2021</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5">
+        <v>2021</v>
+      </c>
+      <c r="D5">
+        <v>47911992</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6">
+        <v>2020</v>
+      </c>
+      <c r="D6">
+        <v>2838360</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7">
+        <v>2020</v>
+      </c>
+      <c r="D7">
+        <v>34853683</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8">
+        <v>2020</v>
+      </c>
+      <c r="D8">
+        <v>4031156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9">
+        <v>2020</v>
+      </c>
+      <c r="D9">
+        <v>39221937</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>